--- a/lab1.05/lab1.05.xlsx
+++ b/lab1.05/lab1.05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\only_labs_java\physics\lab1.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49F80B-8CD5-40DA-9218-53D1C1FF0439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99394235-6CD9-4BE8-807F-C096DC46EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>t1</t>
   </si>
@@ -167,13 +167,31 @@
     <t>Tср</t>
   </si>
   <si>
-    <t>d_i for \phi</t>
-  </si>
-  <si>
     <t>Табл2</t>
   </si>
   <si>
     <t>Табл3</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d_i</t>
+  </si>
+  <si>
+    <t>S_b</t>
+  </si>
+  <si>
+    <t>Delta ml</t>
+  </si>
+  <si>
+    <t>d_i for 4\phi /T</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
@@ -264,6 +282,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,7 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1138,52 +1156,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.425381659468175</c:v>
+                  <c:v>2.425208528589859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5870737700993867</c:v>
+                  <c:v>2.5868890971625165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7487658807305984</c:v>
+                  <c:v>2.7485696657351735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9104579913618096</c:v>
+                  <c:v>2.9102502343078309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0721501019930217</c:v>
+                  <c:v>3.0719308028804888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2338422126242334</c:v>
+                  <c:v>3.2336113714531458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3955343232554451</c:v>
+                  <c:v>3.3952919400258033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5572264338866568</c:v>
+                  <c:v>3.5569725085984607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7189185445178685</c:v>
+                  <c:v>3.7186530771711177</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8806106551490807</c:v>
+                  <c:v>3.8803336457437756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0423027657802928</c:v>
+                  <c:v>4.042014214316433</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2039948764115049</c:v>
+                  <c:v>4.2036947828890909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2848409317271079</c:v>
+                  <c:v>4.2845350671754172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.44653304235832</c:v>
+                  <c:v>4.4462156357480742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6082251529895322</c:v>
+                  <c:v>4.607896204320733</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8507633189363499</c:v>
+                  <c:v>4.8504170571797181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:W44"/>
+  <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,29 +3017,29 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="7" spans="2:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>25</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="10">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>15</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>10</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -3052,12 +3070,12 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3358,6 +3376,9 @@
       <c r="T15" t="s">
         <v>31</v>
       </c>
+      <c r="U15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -3370,35 +3391,35 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="N16" s="6" cm="1">
         <f t="array" ref="N16">(SUM((D12:H12-Q8)*(H15:L15-G15)))/SUMSQ((D12:H12-Q8))</f>
         <v>0.13992124814768264</v>
       </c>
       <c r="T16" cm="1">
-        <f t="array" ref="T16">SUM(R8:W8*M24:R24)/(SUMSQ(R8:W8))</f>
-        <v>1.2369187291775862E-2</v>
+        <f t="array" ref="T16">SUM(R8:W8*M24:R24)/(SUMSQ(M24:R24))</f>
+        <v>80.840284286328639</v>
       </c>
       <c r="U16">
-        <f>4*PI()^2*T16/9.82</f>
-        <v>4.9726674269983548E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <f>4*PI()^2/9.82/T16</f>
+        <v>4.9730224159690181E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
         <v>57.78</v>
       </c>
-      <c r="J17">
-        <f>D14-(28.5+4*0.14*N8)</f>
-        <v>-12.515999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
@@ -3410,14 +3431,35 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="J18">
-        <f t="shared" ref="J18:J22" si="4">D15-(28.5+4*0.14*N9)</f>
-        <v>-18.076000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <f>D14-($K$18+$N$16*D12)</f>
+        <v>-27.361305276233736</v>
+      </c>
+      <c r="K18">
+        <f>15+N16*Q8</f>
+        <v>28.449696776115751</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18">
+        <f>SUMSQ(U19:U24)</f>
+        <v>5.6579868804350585E-3</v>
+      </c>
+      <c r="X18">
+        <f>SUMSQ(M24:R24)</f>
+        <v>1.24229612215223E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>-23.58</v>
+        <f>D15-($K$18+$N$16*E12)</f>
+        <v>-26.598881873351672</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>22</v>
@@ -3440,47 +3482,78 @@
       <c r="R19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <f>AVERAGE(R8:W8)-T16*AVERAGE(M24:R24)</f>
+        <v>4.790923427846927E-3</v>
+      </c>
+      <c r="U19">
+        <f>R8-($T$19+$T$16*M24)</f>
+        <v>8.0894588604487616E-3</v>
+      </c>
+      <c r="V19">
+        <f>(1/(SUMSQ(M24:R24))*(SUMSQ(U19:U24))/(5))^0.5</f>
+        <v>0.30180984416063172</v>
+      </c>
+      <c r="W19">
+        <f>2.57*V19</f>
+        <v>0.77565129949282352</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>-29.326666666666668</v>
+        <f>D16-($K$18+$N$16*F12)</f>
+        <v>-26.516009332306851</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="9">
         <f>0.057+(M19-1)*0.025+0.04/2</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="U20">
+        <f>R9-($T$19+$T$16*N24)</f>
+        <v>4.4893076760490924E-2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>-35.052800000000005</v>
+        <f>D17-($K$18+$N$16*G12)</f>
+        <v>-26.534346494088851</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="9">
         <f>0.057+(R19-1)*0.025+0.04/2</f>
         <v>0.20199999999999999</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="U21">
+        <f>R10-($T$19+$T$16*O24)</f>
+        <v>-1.686039531152117E-2</v>
+      </c>
+      <c r="W21">
+        <f>(4*PI()^2)/(9.82*W19)</f>
+        <v>5.1830061540809664</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>-40.808800000000005</v>
+        <f>D18-($K$18+$N$16*H12)</f>
+        <v>-27.486424785176396</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>25</v>
@@ -3490,27 +3563,31 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" ref="N22:R22" si="5">0.057+(N19-1)*0.025+0.04/2</f>
+        <f t="shared" ref="N22:R22" si="4">0.057+(N19-1)*0.025+0.04/2</f>
         <v>0.10200000000000001</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.127</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.152</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.17699999999999999</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20199999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f>R11-($T$19+$T$16*P24)</f>
+        <v>2.08068204221874E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L23" s="1" t="s">
         <v>26</v>
       </c>
@@ -3519,27 +3596,31 @@
         <v>2.3905127999999998E-2</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" ref="N23:R23" si="6">0.408*($M$20^2+$M$21^2+2*N22^2)</f>
+        <f t="shared" ref="N23:R23" si="5">0.408*($M$20^2+$M$21^2+2*N22^2)</f>
         <v>2.7556727999999999E-2</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.2228328000000001E-2</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.7919927999999999E-2</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.463152799999999E-2</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.2363127999999988E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f>R12-($T$19+$T$16*Q24)</f>
+        <v>-3.569609371713689E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3548,27 +3629,31 @@
         <v>3.1905127999999998E-2</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" ref="N24:Q24" si="7">0.008+N23</f>
+        <f t="shared" ref="N24:Q24" si="6">0.008+N23</f>
         <v>3.5556727999999996E-2</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.0228328000000001E-2</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4.5919927999999999E-2</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.263152799999999E-2</v>
       </c>
       <c r="R24" s="7">
         <f>0.008+R23</f>
         <v>6.0363127999999988E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f>R13-($T$19+$T$16*R24)</f>
+        <v>-5.3359351359890894E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3577,56 +3662,56 @@
         <v>0.64476804149289058</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:R25" si="8">(9.82*S8)/(4*PI()^2)</f>
+        <f t="shared" ref="N25:R25" si="7">(9.82*S8)/(4*PI()^2)</f>
         <v>0.72735088543241433</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.8059289589278833</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.92974794850253717</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.058644649814612</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2017306203976001</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="2">
         <f>(M24)/($U$16)</f>
-        <v>0.64160993005033617</v>
+        <v>0.6415641300459155</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26:R26" si="9">(N24)/($U$16)</f>
-        <v>0.71504335493964577</v>
+        <f t="shared" ref="N26:R26" si="8">(N24)/($U$16)</f>
+        <v>0.71499231304131561</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="9"/>
-        <v>0.80898890968630444</v>
+        <f t="shared" si="8"/>
+        <v>0.80893116167788903</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="9"/>
-        <v>0.92344659429031206</v>
+        <f t="shared" si="8"/>
+        <v>0.92338067595563555</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0584164087516685</v>
+        <f t="shared" si="8"/>
+        <v>1.0583408558745553</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="9"/>
-        <v>1.2138983530703744</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1.2138117014346481</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="J27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3634,162 +3719,162 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="13">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J28" s="8">
         <v>0</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J29" s="13">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J29" s="8">
         <v>0.03</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="8">
         <f>(4*PI()^2*J29)/($U$16*9.82)</f>
-        <v>2.425381659468175</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="13">
+        <v>2.425208528589859</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J30" s="8">
         <f>J29+0.002</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K30" s="13">
-        <f t="shared" ref="K30:K43" si="10">(4*PI()^2*J30)/($U$16*9.82)</f>
-        <v>2.5870737700993867</v>
-      </c>
-      <c r="L30" s="13">
+      <c r="K30" s="8">
+        <f t="shared" ref="K30:K44" si="9">(4*PI()^2*J30)/($U$16*9.82)</f>
+        <v>2.5868890971625165</v>
+      </c>
+      <c r="L30" s="8">
         <f>R8</f>
         <v>2.5920999999999994</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J31" s="13">
-        <f t="shared" ref="J31:J43" si="11">J30+0.002</f>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J31" s="8">
+        <f t="shared" ref="J31:J43" si="10">J30+0.002</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="8">
+        <f t="shared" si="9"/>
+        <v>2.7485696657351735</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J32" s="8">
         <f t="shared" si="10"/>
-        <v>2.7487658807305984</v>
-      </c>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J32" s="13">
-        <f t="shared" si="11"/>
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="K32" s="13">
-        <f t="shared" si="10"/>
-        <v>2.9104579913618096</v>
-      </c>
-      <c r="L32" s="13">
+      <c r="K32" s="8">
+        <f t="shared" si="9"/>
+        <v>2.9102502343078309</v>
+      </c>
+      <c r="L32" s="8">
         <f>R9</f>
         <v>2.9240999999999993</v>
       </c>
     </row>
     <row r="33" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J33" s="13">
-        <f t="shared" si="11"/>
+      <c r="J33" s="8">
+        <f t="shared" si="10"/>
         <v>3.8000000000000006E-2</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="8">
+        <f t="shared" si="9"/>
+        <v>3.0719308028804888</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="8">
         <f t="shared" si="10"/>
-        <v>3.0721501019930217</v>
-      </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J34" s="13">
-        <f t="shared" si="11"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="K34" s="13">
-        <f t="shared" si="10"/>
-        <v>3.2338422126242334</v>
-      </c>
-      <c r="L34" s="13">
+      <c r="K34" s="8">
+        <f t="shared" si="9"/>
+        <v>3.2336113714531458</v>
+      </c>
+      <c r="L34" s="8">
         <f>R10</f>
         <v>3.24</v>
       </c>
     </row>
     <row r="35" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J35" s="13">
-        <f t="shared" si="11"/>
+      <c r="J35" s="8">
+        <f t="shared" si="10"/>
         <v>4.200000000000001E-2</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="8">
+        <f t="shared" si="9"/>
+        <v>3.3952919400258033</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J36" s="8">
         <f t="shared" si="10"/>
-        <v>3.3955343232554451</v>
-      </c>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J36" s="13">
-        <f t="shared" si="11"/>
         <v>4.4000000000000011E-2</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="8">
+        <f t="shared" si="9"/>
+        <v>3.5569725085984607</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J37" s="8">
         <f t="shared" si="10"/>
-        <v>3.5572264338866568</v>
-      </c>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J37" s="13">
-        <f t="shared" si="11"/>
         <v>4.6000000000000013E-2</v>
       </c>
-      <c r="K37" s="13">
-        <f t="shared" si="10"/>
-        <v>3.7189185445178685</v>
-      </c>
-      <c r="L37" s="13">
+      <c r="K37" s="8">
+        <f t="shared" si="9"/>
+        <v>3.7186530771711177</v>
+      </c>
+      <c r="L37" s="8">
         <f>R11</f>
         <v>3.7377777777777768</v>
       </c>
     </row>
     <row r="38" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="13">
-        <f t="shared" si="11"/>
+      <c r="J38" s="8">
+        <f t="shared" si="10"/>
         <v>4.8000000000000015E-2</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="8">
+        <f t="shared" si="9"/>
+        <v>3.8803336457437756</v>
+      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J39" s="8">
         <f t="shared" si="10"/>
-        <v>3.8806106551490807</v>
-      </c>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="13">
-        <f t="shared" si="11"/>
         <v>5.0000000000000017E-2</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="8">
+        <f t="shared" si="9"/>
+        <v>4.042014214316433</v>
+      </c>
+    </row>
+    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J40" s="8">
         <f t="shared" si="10"/>
-        <v>4.0423027657802928</v>
-      </c>
-    </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J40" s="13">
-        <f t="shared" si="11"/>
         <v>5.2000000000000018E-2</v>
       </c>
-      <c r="K40" s="13">
-        <f t="shared" si="10"/>
-        <v>4.2039948764115049</v>
+      <c r="K40" s="8">
+        <f t="shared" si="9"/>
+        <v>4.2036947828890909</v>
       </c>
     </row>
     <row r="41" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="13">
+      <c r="J41" s="8">
         <f>0.053</f>
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K41" s="13">
-        <f t="shared" si="10"/>
-        <v>4.2848409317271079</v>
+      <c r="K41" s="8">
+        <f t="shared" si="9"/>
+        <v>4.2845350671754172</v>
       </c>
       <c r="L41" s="6">
         <f>R12</f>
@@ -3797,33 +3882,33 @@
       </c>
     </row>
     <row r="42" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J42" s="13">
-        <f t="shared" si="11"/>
+      <c r="J42" s="8">
+        <f t="shared" si="10"/>
         <v>5.5E-2</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="8">
+        <f t="shared" si="9"/>
+        <v>4.4462156357480742</v>
+      </c>
+    </row>
+    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J43" s="8">
         <f t="shared" si="10"/>
-        <v>4.44653304235832</v>
-      </c>
-    </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J43" s="13">
-        <f t="shared" si="11"/>
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K43" s="13">
-        <f t="shared" si="10"/>
-        <v>4.6082251529895322</v>
+      <c r="K43" s="8">
+        <f t="shared" si="9"/>
+        <v>4.607896204320733</v>
       </c>
     </row>
     <row r="44" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J44" s="13">
+      <c r="J44" s="8">
         <f>0.06</f>
         <v>0.06</v>
       </c>
-      <c r="K44" s="13">
-        <f>(4*PI()^2*J44)/($U$16*9.82)</f>
-        <v>4.8507633189363499</v>
+      <c r="K44" s="8">
+        <f t="shared" si="9"/>
+        <v>4.8504170571797181</v>
       </c>
       <c r="L44" s="6">
         <f>R13</f>

--- a/lab1.05/lab1.05.xlsx
+++ b/lab1.05/lab1.05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\only_labs_java\physics\lab1.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99394235-6CD9-4BE8-807F-C096DC46EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95105BA0-8937-4CFF-B037-723CA94CBD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,28 +3687,28 @@
         <v>29</v>
       </c>
       <c r="M26" s="2">
-        <f>(M24)/($U$16)</f>
-        <v>0.6415641300459155</v>
+        <f>(M24)/(2*0.408*0.06)</f>
+        <v>0.65165702614379084</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" ref="N26:R26" si="8">(N24)/($U$16)</f>
-        <v>0.71499231304131561</v>
+        <f t="shared" ref="N26:R26" si="8">(N24)/(2*0.408*0.06)</f>
+        <v>0.72624035947712418</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="8"/>
-        <v>0.80893116167788903</v>
+        <v>0.82165702614379088</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="8"/>
-        <v>0.92338067595563555</v>
+        <v>0.93790702614379085</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="8"/>
-        <v>1.0583408558745553</v>
+        <v>1.074990359477124</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
-        <v>1.2138117014346481</v>
+        <v>1.2329070261437907</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
